--- a/chapter 1-2_SE183655.xlsx
+++ b/chapter 1-2_SE183655.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="11850"/>
+    <workbookView windowWidth="23040" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="162">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>2-1B</t>
   </si>
 </sst>
 </file>
@@ -1438,29 +1441,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1767,8 +1770,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26850975"/>
-          <a:ext cx="5257800" cy="1924050"/>
+          <a:off x="0" y="25498425"/>
+          <a:ext cx="5623560" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1809,8 +1812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29136975"/>
-          <a:ext cx="5257800" cy="2095500"/>
+          <a:off x="0" y="27670125"/>
+          <a:ext cx="5623560" cy="1990725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,15 +2087,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB417"/>
+  <dimension ref="A1:BB465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="O393" sqref="O393"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="G445" sqref="G445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
-    <col min="14" max="14" width="9.02857142857143" customWidth="1"/>
+    <col min="14" max="14" width="9.02654867256637" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:1">
@@ -2100,12 +2103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:1">
+    <row r="2" ht="18" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="19.5" spans="1:1">
+    <row r="3" ht="18.75" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:4">
+    <row r="6" ht="15" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" ht="19.5" spans="1:1">
+    <row r="8" ht="18.75" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:2">
+    <row r="12" ht="15" spans="1:2">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="14" ht="19.5" spans="1:1">
+    <row r="14" ht="18.75" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:3">
+    <row r="19" ht="15" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="21" ht="19.5" spans="1:4">
+    <row r="21" ht="18.75" spans="1:4">
       <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" ht="15" customHeight="1" spans="1:4">
       <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" ht="15" customHeight="1" spans="1:4">
       <c r="A24" s="20" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
+    <row r="25" ht="15" customHeight="1" spans="1:4">
       <c r="A25" s="20" t="s">
         <v>22</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>-3800</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
+    <row r="26" ht="15" customHeight="1" spans="1:4">
       <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
+    <row r="27" ht="15" customHeight="1" spans="1:4">
       <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
+    <row r="28" ht="15" customHeight="1" spans="1:4">
       <c r="A28" s="24" t="s">
         <v>25</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="30" ht="19.5" spans="1:1">
+    <row r="30" ht="18.75" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" ht="25.5" spans="1:10">
+    <row r="32" spans="1:10">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
@@ -2640,7 +2643,7 @@
       <c r="I48" s="30"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" ht="15.75" spans="1:10">
+    <row r="49" ht="15" spans="1:10">
       <c r="A49" s="8" t="s">
         <v>48</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="50" ht="15.75"/>
+    <row r="50" ht="15"/>
     <row r="51" spans="1:10">
       <c r="A51" s="17" t="s">
         <v>9</v>
@@ -2738,7 +2741,7 @@
         <v>61140</v>
       </c>
     </row>
-    <row r="54" ht="15.75" spans="1:10">
+    <row r="54" ht="15" spans="1:10">
       <c r="A54" s="8" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="55" ht="15.75" spans="4:10">
+    <row r="55" ht="15" spans="4:10">
       <c r="D55" s="8" t="s">
         <v>17</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>62760</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="8:10">
+    <row r="59" ht="15" spans="8:10">
       <c r="H59" s="34" t="s">
         <v>53</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>62820</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="8:10">
+    <row r="60" ht="15" spans="8:10">
       <c r="H60" s="35"/>
       <c r="J60" s="42"/>
     </row>
@@ -2958,7 +2961,7 @@
       <c r="H74" s="35"/>
       <c r="J74" s="42"/>
     </row>
-    <row r="75" ht="15.75" spans="1:10">
+    <row r="75" ht="15" spans="1:10">
       <c r="A75" s="8" t="s">
         <v>60</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="H76" s="35"/>
       <c r="J76" s="42"/>
     </row>
-    <row r="77" ht="19.5" spans="1:10">
+    <row r="77" ht="18.75" spans="1:10">
       <c r="A77" s="2" t="s">
         <v>61</v>
       </c>
@@ -3189,7 +3192,7 @@
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" ht="15.75" spans="1:12">
+    <row r="93" ht="15" spans="1:12">
       <c r="A93" s="8" t="s">
         <v>48</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="94" ht="15.75"/>
+    <row r="94" ht="15"/>
     <row r="95" spans="1:17">
       <c r="A95" s="3" t="s">
         <v>9</v>
@@ -3319,7 +3322,7 @@
         <v>49960</v>
       </c>
     </row>
-    <row r="98" ht="15.75" spans="1:17">
+    <row r="98" ht="15" spans="1:17">
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="100" ht="15.75" spans="4:17">
+    <row r="100" ht="15" spans="4:17">
       <c r="D100" s="8" t="s">
         <v>70</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>58460</v>
       </c>
     </row>
-    <row r="106" ht="15.75" spans="8:17">
+    <row r="106" ht="15" spans="8:17">
       <c r="H106" s="6"/>
       <c r="I106" t="s">
         <v>56</v>
@@ -3508,7 +3511,7 @@
       <c r="H108" s="6"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" ht="15.75" spans="8:12">
+    <row r="109" ht="15" spans="8:12">
       <c r="H109" s="8" t="s">
         <v>60</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>117260</v>
       </c>
     </row>
-    <row r="111" ht="18.75" spans="1:1">
+    <row r="111" ht="18" spans="1:1">
       <c r="A111" s="2" t="s">
         <v>72</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" ht="18.75" spans="1:1">
+    <row r="118" ht="18" spans="1:1">
       <c r="A118" s="2" t="s">
         <v>77</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" ht="18.75" spans="1:1">
+    <row r="124" ht="18" spans="1:1">
       <c r="A124" s="2" t="s">
         <v>81</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" ht="18.75" spans="1:1">
+    <row r="135" ht="18" spans="1:1">
       <c r="A135" s="2" t="s">
         <v>91</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="165" ht="18.75" spans="1:38">
+    <row r="165" ht="18" spans="1:38">
       <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
@@ -3643,7 +3646,7 @@
       <c r="AI165" s="48"/>
       <c r="AL165" s="48"/>
     </row>
-    <row r="166" ht="19.5" spans="1:38">
+    <row r="166" ht="18.75" spans="1:38">
       <c r="A166" s="2" t="s">
         <v>94</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" ht="15.75" spans="1:39">
+    <row r="178" ht="15" spans="1:39">
       <c r="A178" s="6">
         <v>9</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="180" ht="15.75" spans="1:5">
+    <row r="180" ht="15" spans="1:5">
       <c r="A180" s="6">
         <v>13</v>
       </c>
@@ -4376,7 +4379,7 @@
       <c r="H192" s="6"/>
       <c r="K192" s="7"/>
     </row>
-    <row r="193" ht="15.75" spans="1:11">
+    <row r="193" ht="15" spans="1:11">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="49" t="s">
@@ -4501,7 +4504,7 @@
       <c r="H213" s="6"/>
       <c r="K213" s="7"/>
     </row>
-    <row r="214" ht="15.75" spans="8:11">
+    <row r="214" ht="15" spans="8:11">
       <c r="H214" s="8"/>
       <c r="I214" s="9"/>
       <c r="J214" s="31">
@@ -4513,12 +4516,12 @@
         <v>137440</v>
       </c>
     </row>
-    <row r="216" ht="18.75" spans="1:1">
+    <row r="216" ht="18" spans="1:1">
       <c r="A216" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="217" ht="15.75"/>
+    <row r="217" ht="15"/>
     <row r="218" spans="1:54">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
@@ -5751,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" ht="15.75" spans="1:54">
+    <row r="234" ht="15" spans="1:54">
       <c r="A234" s="6"/>
       <c r="B234" t="s">
         <v>124</v>
@@ -5904,7 +5907,7 @@
       <c r="BA235" s="38"/>
       <c r="BB235" s="38"/>
     </row>
-    <row r="236" ht="15.75" spans="1:54">
+    <row r="236" ht="15" spans="1:54">
       <c r="A236" s="6"/>
       <c r="B236" t="s">
         <v>98</v>
@@ -6410,7 +6413,7 @@
       <c r="H255" s="6"/>
       <c r="K255" s="7"/>
     </row>
-    <row r="256" ht="15.75" spans="1:11">
+    <row r="256" ht="15" spans="1:11">
       <c r="A256" s="8"/>
       <c r="B256" s="9" t="s">
         <v>120</v>
@@ -6582,7 +6585,7 @@
       <c r="H284" s="6"/>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" ht="15.75" spans="8:11">
+    <row r="285" ht="15" spans="8:11">
       <c r="H285" s="8" t="s">
         <v>48</v>
       </c>
@@ -6596,12 +6599,12 @@
         <v>252300</v>
       </c>
     </row>
-    <row r="288" ht="18.75" spans="1:1">
+    <row r="288" ht="18" spans="1:1">
       <c r="A288" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="289" ht="15.75" spans="10:10">
+    <row r="289" ht="15" spans="10:10">
       <c r="J289" t="s">
         <v>142</v>
       </c>
@@ -6622,9 +6625,9 @@
       <c r="K290" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L290" s="53"/>
-      <c r="M290" s="53"/>
-      <c r="N290" s="54">
+      <c r="L290" s="4"/>
+      <c r="M290" s="4"/>
+      <c r="N290" s="5">
         <v>327900</v>
       </c>
     </row>
@@ -6640,7 +6643,7 @@
       <c r="K291" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="N291" s="56">
+      <c r="N291" s="7">
         <v>36000</v>
       </c>
     </row>
@@ -6659,8 +6662,8 @@
       <c r="I292" s="7">
         <v>18750</v>
       </c>
-      <c r="K292" s="55"/>
-      <c r="N292" s="56" t="s">
+      <c r="K292" s="6"/>
+      <c r="N292" s="7" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6682,7 +6685,7 @@
       <c r="K293" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N293" s="56">
+      <c r="N293" s="7">
         <v>270000</v>
       </c>
     </row>
@@ -6701,12 +6704,11 @@
       <c r="I294" s="7">
         <v>3300</v>
       </c>
-      <c r="K294" s="55"/>
+      <c r="K294" s="6"/>
       <c r="L294" t="s">
         <v>68</v>
       </c>
-      <c r="M294"/>
-      <c r="N294" s="56">
+      <c r="N294" s="7">
         <v>35000</v>
       </c>
     </row>
@@ -6725,10 +6727,10 @@
       <c r="I295" s="7">
         <v>147000</v>
       </c>
-      <c r="K295" s="55"/>
-      <c r="N295" s="56"/>
-    </row>
-    <row r="296" ht="15.75" spans="1:14">
+      <c r="K295" s="6"/>
+      <c r="N295" s="7"/>
+    </row>
+    <row r="296" ht="15" spans="1:14">
       <c r="A296" s="6"/>
       <c r="B296" t="s">
         <v>149</v>
@@ -6743,12 +6745,12 @@
       <c r="I296" s="7">
         <v>54000</v>
       </c>
-      <c r="K296" s="58" t="s">
+      <c r="K296" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="L296" s="59"/>
-      <c r="M296" s="59"/>
-      <c r="N296" s="60">
+      <c r="L296" s="9"/>
+      <c r="M296" s="9"/>
+      <c r="N296" s="10">
         <f>N290+N291-N293-N294</f>
         <v>58900</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>327900</v>
       </c>
     </row>
-    <row r="304" ht="15.75" spans="1:9">
+    <row r="304" ht="15" spans="1:9">
       <c r="A304" s="8" t="s">
         <v>71</v>
       </c>
@@ -6866,87 +6868,87 @@
         <v>470400</v>
       </c>
     </row>
-    <row r="306" ht="19.5" spans="1:1">
+    <row r="306" ht="18.75" spans="1:1">
       <c r="A306" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="307" spans="1:39">
-      <c r="A307" s="52"/>
-      <c r="B307" s="53"/>
-      <c r="C307" s="53"/>
-      <c r="D307" s="53" t="s">
+      <c r="A307" s="3"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E307" s="54" t="s">
+      <c r="E307" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H307" s="52" t="s">
+      <c r="H307" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I307" s="53"/>
-      <c r="J307" s="53"/>
-      <c r="K307" s="53" t="s">
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
+      <c r="K307" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L307" s="53"/>
-      <c r="M307" s="53"/>
-      <c r="N307" s="53" t="s">
+      <c r="L307" s="4"/>
+      <c r="M307" s="4"/>
+      <c r="N307" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O307" s="53"/>
-      <c r="P307" s="53"/>
-      <c r="Q307" s="53" t="s">
+      <c r="O307" s="4"/>
+      <c r="P307" s="4"/>
+      <c r="Q307" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R307" s="53"/>
-      <c r="S307" s="53"/>
-      <c r="T307" s="53" t="s">
+      <c r="R307" s="4"/>
+      <c r="S307" s="4"/>
+      <c r="T307" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U307" s="53"/>
-      <c r="V307" s="53"/>
-      <c r="W307" s="53" t="s">
+      <c r="U307" s="4"/>
+      <c r="V307" s="4"/>
+      <c r="W307" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="X307" s="53"/>
-      <c r="Y307" s="53"/>
-      <c r="Z307" s="53" t="s">
+      <c r="X307" s="4"/>
+      <c r="Y307" s="4"/>
+      <c r="Z307" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA307" s="53"/>
-      <c r="AB307" s="53"/>
-      <c r="AC307" s="53" t="s">
+      <c r="AA307" s="4"/>
+      <c r="AB307" s="4"/>
+      <c r="AC307" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD307" s="53"/>
-      <c r="AE307" s="53"/>
-      <c r="AF307" s="53" t="s">
+      <c r="AD307" s="4"/>
+      <c r="AE307" s="4"/>
+      <c r="AF307" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AG307" s="53"/>
-      <c r="AH307" s="53"/>
-      <c r="AI307" s="53" t="s">
+      <c r="AG307" s="4"/>
+      <c r="AH307" s="4"/>
+      <c r="AI307" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AJ307" s="53"/>
-      <c r="AK307" s="53"/>
-      <c r="AL307" s="53" t="s">
+      <c r="AJ307" s="4"/>
+      <c r="AK307" s="4"/>
+      <c r="AL307" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AM307" s="54"/>
+      <c r="AM307" s="5"/>
     </row>
     <row r="308" spans="1:39">
-      <c r="A308" s="55">
+      <c r="A308" s="6">
         <v>1</v>
       </c>
       <c r="B308" t="s">
         <v>68</v>
       </c>
-      <c r="E308" s="56">
+      <c r="E308" s="7">
         <v>172000</v>
       </c>
-      <c r="H308" s="55" t="s">
+      <c r="H308" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I308" t="s">
@@ -7009,20 +7011,20 @@
       <c r="AL308" t="s">
         <v>95</v>
       </c>
-      <c r="AM308" s="56" t="s">
+      <c r="AM308" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="309" spans="1:39">
-      <c r="A309" s="55"/>
+      <c r="A309" s="6"/>
       <c r="B309" t="s">
         <v>28</v>
       </c>
       <c r="D309">
         <v>150000</v>
       </c>
-      <c r="E309" s="56"/>
-      <c r="H309" s="55">
+      <c r="E309" s="7"/>
+      <c r="H309" s="6">
         <v>150000</v>
       </c>
       <c r="K309">
@@ -7031,7 +7033,6 @@
       <c r="N309">
         <v>1200</v>
       </c>
-      <c r="O309"/>
       <c r="Q309">
         <v>5000</v>
       </c>
@@ -7056,18 +7057,18 @@
       <c r="AL309">
         <v>200</v>
       </c>
-      <c r="AM309" s="56"/>
+      <c r="AM309" s="7"/>
     </row>
     <row r="310" spans="1:39">
-      <c r="A310" s="55"/>
+      <c r="A310" s="6"/>
       <c r="B310" t="s">
         <v>64</v>
       </c>
       <c r="D310">
         <v>22000</v>
       </c>
-      <c r="E310" s="56"/>
-      <c r="H310" s="55"/>
+      <c r="E310" s="7"/>
+      <c r="H310" s="6"/>
       <c r="I310">
         <v>6000</v>
       </c>
@@ -7086,10 +7087,10 @@
       <c r="AJ310">
         <v>7500</v>
       </c>
-      <c r="AM310" s="56"/>
+      <c r="AM310" s="7"/>
     </row>
     <row r="311" spans="1:39">
-      <c r="A311" s="55">
+      <c r="A311" s="6">
         <v>2</v>
       </c>
       <c r="B311" t="s">
@@ -7098,8 +7099,8 @@
       <c r="D311">
         <v>6000</v>
       </c>
-      <c r="E311" s="56"/>
-      <c r="H311" s="55">
+      <c r="E311" s="7"/>
+      <c r="H311" s="6">
         <v>4000</v>
       </c>
       <c r="K311">
@@ -7111,24 +7112,24 @@
       <c r="AJ311">
         <v>3820</v>
       </c>
-      <c r="AM311" s="56"/>
+      <c r="AM311" s="7"/>
     </row>
     <row r="312" spans="1:39">
-      <c r="A312" s="55"/>
+      <c r="A312" s="6"/>
       <c r="B312" t="s">
         <v>28</v>
       </c>
-      <c r="E312" s="56">
+      <c r="E312" s="7">
         <v>6000</v>
       </c>
-      <c r="H312" s="55"/>
+      <c r="H312" s="6"/>
       <c r="I312">
         <v>4200</v>
       </c>
-      <c r="AM312" s="56"/>
+      <c r="AM312" s="7"/>
     </row>
     <row r="313" spans="1:39">
-      <c r="A313" s="55">
+      <c r="A313" s="6">
         <v>3</v>
       </c>
       <c r="B313" t="s">
@@ -7137,43 +7138,43 @@
       <c r="D313">
         <v>3000</v>
       </c>
-      <c r="E313" s="56"/>
-      <c r="H313" s="55"/>
+      <c r="E313" s="7"/>
+      <c r="H313" s="6"/>
       <c r="I313">
         <v>5000</v>
       </c>
-      <c r="AM313" s="56"/>
+      <c r="AM313" s="7"/>
     </row>
     <row r="314" spans="1:39">
-      <c r="A314" s="55"/>
+      <c r="A314" s="6"/>
       <c r="B314" t="s">
         <v>63</v>
       </c>
       <c r="D314">
         <v>1200</v>
       </c>
-      <c r="E314" s="56"/>
-      <c r="H314" s="55">
+      <c r="E314" s="7"/>
+      <c r="H314" s="6">
         <v>3500</v>
       </c>
-      <c r="AM314" s="56"/>
+      <c r="AM314" s="7"/>
     </row>
     <row r="315" spans="1:39">
-      <c r="A315" s="55"/>
+      <c r="A315" s="6"/>
       <c r="B315" t="s">
         <v>131</v>
       </c>
-      <c r="E315" s="56">
+      <c r="E315" s="7">
         <v>4200</v>
       </c>
-      <c r="H315" s="55"/>
+      <c r="H315" s="6"/>
       <c r="I315">
         <v>5100</v>
       </c>
-      <c r="AM315" s="56"/>
+      <c r="AM315" s="7"/>
     </row>
     <row r="316" spans="1:39">
-      <c r="A316" s="55">
+      <c r="A316" s="6">
         <v>6</v>
       </c>
       <c r="B316" t="s">
@@ -7182,22 +7183,22 @@
       <c r="D316">
         <v>4000</v>
       </c>
-      <c r="E316" s="56"/>
-      <c r="H316" s="55"/>
+      <c r="E316" s="7"/>
+      <c r="H316" s="6"/>
       <c r="I316">
         <v>200</v>
       </c>
-      <c r="AM316" s="56"/>
+      <c r="AM316" s="7"/>
     </row>
     <row r="317" spans="1:39">
-      <c r="A317" s="55"/>
+      <c r="A317" s="6"/>
       <c r="B317" t="s">
         <v>154</v>
       </c>
-      <c r="E317" s="56">
+      <c r="E317" s="7">
         <v>4000</v>
       </c>
-      <c r="H317" s="57">
+      <c r="H317" s="47">
         <f>SUM(H309:H316)</f>
         <v>157500</v>
       </c>
@@ -7321,153 +7322,153 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="AM317" s="62">
+      <c r="AM317" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" ht="15.75" spans="1:39">
-      <c r="A318" s="55">
+    <row r="318" ht="15" spans="1:39">
+      <c r="A318" s="6">
         <v>9</v>
       </c>
       <c r="B318" t="s">
         <v>154</v>
       </c>
-      <c r="E318" s="56">
+      <c r="E318" s="7">
         <v>7500</v>
       </c>
-      <c r="H318" s="58">
+      <c r="H318" s="8">
         <f>H317-I317</f>
         <v>137000</v>
       </c>
-      <c r="I318" s="59"/>
-      <c r="J318" s="59"/>
-      <c r="K318" s="59">
+      <c r="I318" s="9"/>
+      <c r="J318" s="9"/>
+      <c r="K318" s="9">
         <f>K317-L317</f>
         <v>7820</v>
       </c>
-      <c r="L318" s="59"/>
-      <c r="M318" s="59"/>
-      <c r="N318" s="61">
+      <c r="L318" s="9"/>
+      <c r="M318" s="9"/>
+      <c r="N318" s="31">
         <v>1800</v>
       </c>
-      <c r="O318" s="59"/>
-      <c r="P318" s="59"/>
-      <c r="Q318" s="61">
+      <c r="O318" s="9"/>
+      <c r="P318" s="9"/>
+      <c r="Q318" s="31">
         <f>SUM(Q310:Q317)</f>
         <v>5000</v>
       </c>
-      <c r="R318" s="59"/>
-      <c r="S318" s="59"/>
-      <c r="T318" s="61">
+      <c r="R318" s="9"/>
+      <c r="S318" s="9"/>
+      <c r="T318" s="31">
         <f>SUM(T310:T317)</f>
         <v>6000</v>
       </c>
-      <c r="U318" s="59"/>
-      <c r="V318" s="59"/>
-      <c r="W318" s="61">
+      <c r="U318" s="9"/>
+      <c r="V318" s="9"/>
+      <c r="W318" s="31">
         <v>25000</v>
       </c>
-      <c r="X318" s="59"/>
-      <c r="Y318" s="59"/>
-      <c r="Z318" s="59"/>
-      <c r="AA318" s="59">
+      <c r="X318" s="9"/>
+      <c r="Y318" s="9"/>
+      <c r="Z318" s="9"/>
+      <c r="AA318" s="9">
         <f>AA317-Z317</f>
         <v>600</v>
       </c>
-      <c r="AB318" s="59"/>
-      <c r="AC318" s="59"/>
-      <c r="AD318" s="61">
+      <c r="AB318" s="9"/>
+      <c r="AC318" s="9"/>
+      <c r="AD318" s="31">
         <f>SUM(AD310:AD317)</f>
         <v>172000</v>
       </c>
-      <c r="AE318" s="59"/>
-      <c r="AF318" s="61">
+      <c r="AE318" s="9"/>
+      <c r="AF318" s="31">
         <f>SUM(AF310:AF317)</f>
         <v>5100</v>
       </c>
-      <c r="AG318" s="59"/>
-      <c r="AH318" s="59"/>
-      <c r="AI318" s="59"/>
-      <c r="AJ318" s="61">
+      <c r="AG318" s="9"/>
+      <c r="AH318" s="9"/>
+      <c r="AI318" s="9"/>
+      <c r="AJ318" s="31">
         <v>15320</v>
       </c>
-      <c r="AK318" s="59"/>
-      <c r="AL318" s="61">
+      <c r="AK318" s="9"/>
+      <c r="AL318" s="31">
         <f>SUM(AL310:AL317)</f>
         <v>200</v>
       </c>
-      <c r="AM318" s="60"/>
+      <c r="AM318" s="10"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="55"/>
+      <c r="A319" s="6"/>
       <c r="B319" t="s">
         <v>98</v>
       </c>
       <c r="D319">
         <v>7500</v>
       </c>
-      <c r="E319" s="56"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="55">
+      <c r="E319" s="7"/>
+    </row>
+    <row r="320" ht="15" spans="1:5">
+      <c r="A320" s="6">
         <v>13</v>
       </c>
       <c r="B320" t="s">
         <v>28</v>
       </c>
-      <c r="E320" s="56">
+      <c r="E320" s="7">
         <v>4200</v>
       </c>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="55"/>
+      <c r="A321" s="6"/>
       <c r="B321" t="s">
         <v>131</v>
       </c>
       <c r="D321">
         <v>4200</v>
       </c>
-      <c r="E321" s="56"/>
-      <c r="H321" s="63" t="s">
+      <c r="E321" s="7"/>
+      <c r="H321" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I321" s="65"/>
-      <c r="J321" s="65"/>
-      <c r="K321" s="66"/>
+      <c r="I321" s="18"/>
+      <c r="J321" s="18"/>
+      <c r="K321" s="19"/>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="55">
+      <c r="A322" s="6">
         <v>19</v>
       </c>
       <c r="B322" t="s">
         <v>28</v>
       </c>
-      <c r="E322" s="56">
+      <c r="E322" s="7">
         <v>5000</v>
       </c>
-      <c r="H322" s="55" t="s">
+      <c r="H322" s="6" t="s">
         <v>97</v>
       </c>
       <c r="J322">
         <v>137000</v>
       </c>
-      <c r="K322" s="56"/>
+      <c r="K322" s="7"/>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="55"/>
+      <c r="A323" s="6"/>
       <c r="B323" t="s">
         <v>108</v>
       </c>
       <c r="D323">
         <v>5000</v>
       </c>
-      <c r="E323" s="56"/>
-      <c r="H323" s="55"/>
-      <c r="K323" s="56"/>
+      <c r="E323" s="7"/>
+      <c r="H323" s="6"/>
+      <c r="K323" s="7"/>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="55">
+      <c r="A324" s="6">
         <v>22</v>
       </c>
       <c r="B324" t="s">
@@ -7476,83 +7477,83 @@
       <c r="D324">
         <v>3500</v>
       </c>
-      <c r="E324" s="56"/>
-      <c r="H324" s="55"/>
-      <c r="K324" s="56"/>
+      <c r="E324" s="7"/>
+      <c r="H324" s="6"/>
+      <c r="K324" s="7"/>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="55"/>
+      <c r="A325" s="6"/>
       <c r="B325" t="s">
         <v>98</v>
       </c>
-      <c r="E325" s="56">
+      <c r="E325" s="7">
         <v>3500</v>
       </c>
-      <c r="H325" s="55" t="s">
+      <c r="H325" s="6" t="s">
         <v>98</v>
       </c>
       <c r="J325">
         <v>7820</v>
       </c>
-      <c r="K325" s="56"/>
+      <c r="K325" s="7"/>
     </row>
     <row r="326" spans="1:11">
-      <c r="A326" s="55">
+      <c r="A326" s="6">
         <v>25</v>
       </c>
       <c r="B326" t="s">
         <v>154</v>
       </c>
-      <c r="E326" s="56">
+      <c r="E326" s="7">
         <v>3820</v>
       </c>
-      <c r="H326" s="55"/>
-      <c r="K326" s="56"/>
+      <c r="H326" s="6"/>
+      <c r="K326" s="7"/>
     </row>
     <row r="327" spans="1:11">
-      <c r="A327" s="55"/>
+      <c r="A327" s="6"/>
       <c r="B327" t="s">
         <v>98</v>
       </c>
       <c r="D327">
         <v>3820</v>
       </c>
-      <c r="E327" s="56"/>
-      <c r="H327" s="55"/>
-      <c r="K327" s="56"/>
+      <c r="E327" s="7"/>
+      <c r="H327" s="6"/>
+      <c r="K327" s="7"/>
     </row>
     <row r="328" spans="1:11">
-      <c r="A328" s="55">
+      <c r="A328" s="6">
         <v>29</v>
       </c>
       <c r="B328" t="s">
         <v>97</v>
       </c>
-      <c r="E328" s="56">
+      <c r="E328" s="7">
         <v>5100</v>
       </c>
-      <c r="H328" s="55" t="s">
+      <c r="H328" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J328">
         <v>1800</v>
       </c>
-      <c r="K328" s="56"/>
+      <c r="K328" s="7"/>
     </row>
     <row r="329" spans="1:11">
-      <c r="A329" s="55"/>
+      <c r="A329" s="6"/>
       <c r="B329" t="s">
         <v>69</v>
       </c>
       <c r="D329">
         <v>5100</v>
       </c>
-      <c r="E329" s="56"/>
-      <c r="H329" s="55"/>
-      <c r="K329" s="56"/>
+      <c r="E329" s="7"/>
+      <c r="H329" s="6"/>
+      <c r="K329" s="7"/>
     </row>
     <row r="330" spans="1:11">
-      <c r="A330" s="55">
+      <c r="A330" s="6">
         <v>30</v>
       </c>
       <c r="B330" t="s">
@@ -7561,28 +7562,28 @@
       <c r="D330">
         <v>600</v>
       </c>
-      <c r="E330" s="56"/>
-      <c r="H330" s="55"/>
-      <c r="K330" s="56"/>
+      <c r="E330" s="7"/>
+      <c r="H330" s="6"/>
+      <c r="K330" s="7"/>
     </row>
     <row r="331" spans="1:11">
-      <c r="A331" s="55"/>
+      <c r="A331" s="6"/>
       <c r="B331" t="s">
         <v>131</v>
       </c>
-      <c r="E331" s="56">
+      <c r="E331" s="7">
         <v>600</v>
       </c>
-      <c r="H331" s="55" t="s">
+      <c r="H331" s="6" t="s">
         <v>99</v>
       </c>
       <c r="J331">
         <v>5000</v>
       </c>
-      <c r="K331" s="56"/>
+      <c r="K331" s="7"/>
     </row>
     <row r="332" spans="1:11">
-      <c r="A332" s="55">
+      <c r="A332" s="6">
         <v>31</v>
       </c>
       <c r="B332" t="s">
@@ -7591,239 +7592,239 @@
       <c r="D332">
         <v>200</v>
       </c>
-      <c r="E332" s="56"/>
-      <c r="H332" s="55"/>
-      <c r="K332" s="56"/>
+      <c r="E332" s="7"/>
+      <c r="H332" s="6"/>
+      <c r="K332" s="7"/>
     </row>
     <row r="333" spans="1:11">
-      <c r="A333" s="55"/>
+      <c r="A333" s="6"/>
       <c r="B333" t="s">
         <v>28</v>
       </c>
-      <c r="E333" s="56">
+      <c r="E333" s="7">
         <v>200</v>
       </c>
-      <c r="H333" s="55"/>
-      <c r="K333" s="56"/>
-    </row>
-    <row r="334" ht="15.75" spans="1:11">
-      <c r="A334" s="58"/>
-      <c r="B334" s="59"/>
-      <c r="C334" s="59"/>
-      <c r="D334" s="61">
+      <c r="H333" s="6"/>
+      <c r="K333" s="7"/>
+    </row>
+    <row r="334" ht="15" spans="1:11">
+      <c r="A334" s="8"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
+      <c r="D334" s="31">
         <f>SUM(D308:D333)</f>
         <v>216120</v>
       </c>
-      <c r="E334" s="64">
+      <c r="E334" s="32">
         <f>SUM(E308:E333)</f>
         <v>216120</v>
       </c>
-      <c r="H334" s="55" t="s">
+      <c r="H334" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J334">
         <v>6000</v>
       </c>
-      <c r="K334" s="56"/>
+      <c r="K334" s="7"/>
     </row>
     <row r="335" spans="8:11">
-      <c r="H335" s="55"/>
-      <c r="K335" s="56"/>
+      <c r="H335" s="6"/>
+      <c r="K335" s="7"/>
     </row>
     <row r="336" spans="8:11">
-      <c r="H336" s="55"/>
-      <c r="K336" s="56"/>
+      <c r="H336" s="6"/>
+      <c r="K336" s="7"/>
     </row>
     <row r="337" spans="8:11">
-      <c r="H337" s="55" t="s">
+      <c r="H337" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J337">
         <v>25000</v>
       </c>
-      <c r="K337" s="56"/>
+      <c r="K337" s="7"/>
     </row>
     <row r="338" spans="8:11">
-      <c r="H338" s="55"/>
-      <c r="K338" s="56"/>
+      <c r="H338" s="6"/>
+      <c r="K338" s="7"/>
     </row>
     <row r="339" spans="8:11">
-      <c r="H339" s="55"/>
-      <c r="K339" s="56"/>
+      <c r="H339" s="6"/>
+      <c r="K339" s="7"/>
     </row>
     <row r="340" spans="8:11">
-      <c r="H340" s="55" t="s">
+      <c r="H340" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K340" s="56"/>
+      <c r="K340" s="7"/>
     </row>
     <row r="341" spans="8:11">
-      <c r="H341" s="55"/>
-      <c r="K341" s="56">
+      <c r="H341" s="6"/>
+      <c r="K341" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="342" spans="8:11">
-      <c r="H342" s="55"/>
-      <c r="K342" s="56"/>
+      <c r="H342" s="6"/>
+      <c r="K342" s="7"/>
     </row>
     <row r="343" spans="8:11">
-      <c r="H343" s="55" t="s">
+      <c r="H343" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K343" s="56"/>
+      <c r="K343" s="7"/>
     </row>
     <row r="344" spans="8:11">
-      <c r="H344" s="55"/>
-      <c r="K344" s="56">
+      <c r="H344" s="6"/>
+      <c r="K344" s="7">
         <v>172000</v>
       </c>
     </row>
     <row r="345" spans="8:11">
-      <c r="H345" s="55"/>
-      <c r="K345" s="56"/>
+      <c r="H345" s="6"/>
+      <c r="K345" s="7"/>
     </row>
     <row r="346" spans="8:11">
-      <c r="H346" s="55" t="s">
+      <c r="H346" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J346">
         <v>5100</v>
       </c>
-      <c r="K346" s="56"/>
+      <c r="K346" s="7"/>
     </row>
     <row r="347" spans="8:11">
-      <c r="H347" s="55"/>
-      <c r="K347" s="56"/>
+      <c r="H347" s="6"/>
+      <c r="K347" s="7"/>
     </row>
     <row r="348" spans="8:11">
-      <c r="H348" s="55"/>
-      <c r="K348" s="56"/>
+      <c r="H348" s="6"/>
+      <c r="K348" s="7"/>
     </row>
     <row r="349" spans="8:11">
-      <c r="H349" s="55" t="s">
+      <c r="H349" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K349" s="56"/>
+      <c r="K349" s="7"/>
     </row>
     <row r="350" spans="8:11">
-      <c r="H350" s="55"/>
-      <c r="K350" s="56">
+      <c r="H350" s="6"/>
+      <c r="K350" s="7">
         <v>15320</v>
       </c>
     </row>
     <row r="351" spans="8:11">
-      <c r="H351" s="55"/>
-      <c r="K351" s="56"/>
+      <c r="H351" s="6"/>
+      <c r="K351" s="7"/>
     </row>
     <row r="352" spans="8:11">
-      <c r="H352" s="55" t="s">
+      <c r="H352" s="6" t="s">
         <v>103</v>
       </c>
       <c r="J352">
         <v>200</v>
       </c>
-      <c r="K352" s="56"/>
-    </row>
-    <row r="353" ht="15.75" spans="8:11">
-      <c r="H353" s="58"/>
-      <c r="I353" s="59"/>
-      <c r="J353" s="61">
+      <c r="K352" s="7"/>
+    </row>
+    <row r="353" ht="15" spans="8:11">
+      <c r="H353" s="8"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="31">
         <f>SUM(J322:J352)</f>
         <v>187920</v>
       </c>
-      <c r="K353" s="64">
+      <c r="K353" s="32">
         <f>SUM(K322:K352)</f>
         <v>187920</v>
       </c>
     </row>
-    <row r="355" ht="19.5" spans="1:1">
+    <row r="355" ht="18.75" spans="1:1">
       <c r="A355" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="356" spans="1:48">
-      <c r="A356" s="52"/>
-      <c r="B356" s="53"/>
-      <c r="C356" s="53"/>
-      <c r="D356" s="53" t="s">
+      <c r="A356" s="3"/>
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E356" s="54" t="s">
+      <c r="E356" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H356" s="52" t="s">
+      <c r="H356" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I356" s="53"/>
-      <c r="J356" s="53"/>
-      <c r="K356" s="53" t="s">
+      <c r="I356" s="4"/>
+      <c r="J356" s="4"/>
+      <c r="K356" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L356" s="53"/>
-      <c r="M356" s="53"/>
-      <c r="N356" s="53" t="s">
+      <c r="L356" s="4"/>
+      <c r="M356" s="4"/>
+      <c r="N356" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O356" s="53"/>
-      <c r="P356" s="53"/>
-      <c r="Q356" s="53" t="s">
+      <c r="O356" s="4"/>
+      <c r="P356" s="4"/>
+      <c r="Q356" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R356" s="53"/>
-      <c r="S356" s="53"/>
-      <c r="T356" s="53" t="s">
+      <c r="R356" s="4"/>
+      <c r="S356" s="4"/>
+      <c r="T356" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="U356" s="53"/>
-      <c r="V356" s="53"/>
-      <c r="W356" s="53" t="s">
+      <c r="U356" s="4"/>
+      <c r="V356" s="4"/>
+      <c r="W356" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="X356" s="53"/>
-      <c r="Y356" s="53"/>
-      <c r="Z356" s="53" t="s">
+      <c r="X356" s="4"/>
+      <c r="Y356" s="4"/>
+      <c r="Z356" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AA356" s="53"/>
-      <c r="AB356" s="53"/>
-      <c r="AC356" s="53" t="s">
+      <c r="AA356" s="4"/>
+      <c r="AB356" s="4"/>
+      <c r="AC356" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AD356" s="53"/>
-      <c r="AE356" s="53"/>
-      <c r="AF356" s="53" t="s">
+      <c r="AD356" s="4"/>
+      <c r="AE356" s="4"/>
+      <c r="AF356" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AG356" s="53"/>
-      <c r="AH356" s="53"/>
-      <c r="AI356" s="53" t="s">
+      <c r="AG356" s="4"/>
+      <c r="AH356" s="4"/>
+      <c r="AI356" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AJ356" s="53"/>
-      <c r="AK356" s="53"/>
-      <c r="AL356" s="53" t="s">
+      <c r="AJ356" s="4"/>
+      <c r="AK356" s="4"/>
+      <c r="AL356" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AM356" s="53"/>
-      <c r="AN356" s="53"/>
-      <c r="AO356" s="53" t="s">
+      <c r="AM356" s="4"/>
+      <c r="AN356" s="4"/>
+      <c r="AO356" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AP356" s="53"/>
-      <c r="AQ356" s="53"/>
-      <c r="AR356" s="53" t="s">
+      <c r="AP356" s="4"/>
+      <c r="AQ356" s="4"/>
+      <c r="AR356" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AS356" s="53"/>
-      <c r="AT356" s="53"/>
-      <c r="AU356" s="53" t="s">
+      <c r="AS356" s="4"/>
+      <c r="AT356" s="4"/>
+      <c r="AU356" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AV356" s="54"/>
+      <c r="AV356" s="5"/>
     </row>
     <row r="357" spans="1:48">
-      <c r="A357" s="55" t="s">
+      <c r="A357" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B357" t="s">
@@ -7832,8 +7833,8 @@
       <c r="D357">
         <v>23000</v>
       </c>
-      <c r="E357" s="56"/>
-      <c r="H357" s="55" t="s">
+      <c r="E357" s="7"/>
+      <c r="H357" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I357" t="s">
@@ -7914,20 +7915,20 @@
       <c r="AU357" t="s">
         <v>95</v>
       </c>
-      <c r="AV357" s="56" t="s">
+      <c r="AV357" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="358" spans="1:48">
-      <c r="A358" s="55"/>
+      <c r="A358" s="6"/>
       <c r="B358" t="s">
         <v>64</v>
       </c>
       <c r="D358">
         <v>12000</v>
       </c>
-      <c r="E358" s="56"/>
-      <c r="H358" s="55">
+      <c r="E358" s="7"/>
+      <c r="H358" s="6">
         <v>23000</v>
       </c>
       <c r="K358">
@@ -7969,17 +7970,17 @@
       <c r="AU358">
         <v>430</v>
       </c>
-      <c r="AV358" s="56"/>
+      <c r="AV358" s="7"/>
     </row>
     <row r="359" spans="1:48">
-      <c r="A359" s="55"/>
+      <c r="A359" s="6"/>
       <c r="B359" t="s">
         <v>68</v>
       </c>
-      <c r="E359" s="56">
+      <c r="E359" s="7">
         <v>35000</v>
       </c>
-      <c r="H359" s="55"/>
+      <c r="H359" s="6"/>
       <c r="I359">
         <v>15000</v>
       </c>
@@ -8001,10 +8002,10 @@
       <c r="AR359">
         <v>800</v>
       </c>
-      <c r="AV359" s="56"/>
+      <c r="AV359" s="7"/>
     </row>
     <row r="360" spans="1:48">
-      <c r="A360" s="55" t="s">
+      <c r="A360" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B360" t="s">
@@ -8013,8 +8014,8 @@
       <c r="D360">
         <v>8000</v>
       </c>
-      <c r="E360" s="56"/>
-      <c r="H360" s="55"/>
+      <c r="E360" s="7"/>
+      <c r="H360" s="6"/>
       <c r="I360">
         <v>800</v>
       </c>
@@ -8024,52 +8025,52 @@
       <c r="AC360">
         <v>600</v>
       </c>
-      <c r="AV360" s="56"/>
+      <c r="AV360" s="7"/>
     </row>
     <row r="361" spans="1:48">
-      <c r="A361" s="55"/>
+      <c r="A361" s="6"/>
       <c r="B361" t="s">
         <v>113</v>
       </c>
       <c r="D361">
         <v>33000</v>
       </c>
-      <c r="E361" s="56"/>
-      <c r="H361" s="55">
+      <c r="E361" s="7"/>
+      <c r="H361" s="6">
         <v>2700</v>
       </c>
-      <c r="AV361" s="56"/>
+      <c r="AV361" s="7"/>
     </row>
     <row r="362" spans="1:48">
-      <c r="A362" s="55"/>
+      <c r="A362" s="6"/>
       <c r="B362" t="s">
         <v>28</v>
       </c>
-      <c r="E362" s="56">
+      <c r="E362" s="7">
         <v>15000</v>
       </c>
-      <c r="H362" s="55"/>
+      <c r="H362" s="6"/>
       <c r="I362">
         <v>430</v>
       </c>
-      <c r="AV362" s="56"/>
+      <c r="AV362" s="7"/>
     </row>
     <row r="363" spans="1:48">
-      <c r="A363" s="55"/>
+      <c r="A363" s="6"/>
       <c r="B363" t="s">
         <v>124</v>
       </c>
-      <c r="E363" s="56">
+      <c r="E363" s="7">
         <v>26000</v>
       </c>
-      <c r="H363" s="55"/>
+      <c r="H363" s="6"/>
       <c r="I363">
         <v>600</v>
       </c>
-      <c r="AV363" s="56"/>
+      <c r="AV363" s="7"/>
     </row>
     <row r="364" spans="1:48">
-      <c r="A364" s="55" t="s">
+      <c r="A364" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B364" t="s">
@@ -8078,29 +8079,29 @@
       <c r="D364">
         <v>600</v>
       </c>
-      <c r="E364" s="56"/>
-      <c r="H364" s="55"/>
+      <c r="E364" s="7"/>
+      <c r="H364" s="6"/>
       <c r="I364">
         <v>4000</v>
       </c>
-      <c r="AV364" s="56"/>
+      <c r="AV364" s="7"/>
     </row>
     <row r="365" spans="1:48">
-      <c r="A365" s="55"/>
+      <c r="A365" s="6"/>
       <c r="B365" t="s">
         <v>131</v>
       </c>
-      <c r="E365" s="56">
+      <c r="E365" s="7">
         <v>600</v>
       </c>
-      <c r="H365" s="55"/>
+      <c r="H365" s="6"/>
       <c r="I365">
         <v>800</v>
       </c>
-      <c r="AV365" s="56"/>
+      <c r="AV365" s="7"/>
     </row>
     <row r="366" spans="1:48">
-      <c r="A366" s="55" t="s">
+      <c r="A366" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B366" t="s">
@@ -8109,28 +8110,28 @@
       <c r="D366">
         <v>7000</v>
       </c>
-      <c r="E366" s="56"/>
-      <c r="H366" s="55">
+      <c r="E366" s="7"/>
+      <c r="H366" s="6">
         <v>1000</v>
       </c>
-      <c r="AV366" s="56"/>
+      <c r="AV366" s="7"/>
     </row>
     <row r="367" spans="1:48">
-      <c r="A367" s="55"/>
+      <c r="A367" s="6"/>
       <c r="B367" t="s">
         <v>68</v>
       </c>
-      <c r="E367" s="56">
+      <c r="E367" s="7">
         <v>7000</v>
       </c>
-      <c r="H367" s="55"/>
+      <c r="H367" s="6"/>
       <c r="I367">
         <v>1050</v>
       </c>
-      <c r="AV367" s="56"/>
+      <c r="AV367" s="7"/>
     </row>
     <row r="368" spans="1:48">
-      <c r="A368" s="55" t="s">
+      <c r="A368" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B368" t="s">
@@ -8139,8 +8140,8 @@
       <c r="D368">
         <v>1100</v>
       </c>
-      <c r="E368" s="56"/>
-      <c r="H368" s="57">
+      <c r="E368" s="7"/>
+      <c r="H368" s="47">
         <f>SUM(H358:H367)</f>
         <v>26700</v>
       </c>
@@ -8300,92 +8301,92 @@
         <f t="shared" si="5"/>
         <v>430</v>
       </c>
-      <c r="AV368" s="62">
+      <c r="AV368" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" ht="15.75" spans="1:48">
-      <c r="A369" s="55"/>
+    <row r="369" ht="15" spans="1:48">
+      <c r="A369" s="6"/>
       <c r="B369" t="s">
         <v>131</v>
       </c>
-      <c r="E369" s="56">
+      <c r="E369" s="7">
         <v>1100</v>
       </c>
-      <c r="H369" s="58">
+      <c r="H369" s="8">
         <f>H368-I368</f>
         <v>4020</v>
       </c>
-      <c r="I369" s="59"/>
-      <c r="J369" s="59"/>
-      <c r="K369" s="59">
+      <c r="I369" s="9"/>
+      <c r="J369" s="9"/>
+      <c r="K369" s="9">
         <v>1400</v>
       </c>
-      <c r="L369" s="59"/>
-      <c r="M369" s="59"/>
-      <c r="N369" s="59">
+      <c r="L369" s="9"/>
+      <c r="M369" s="9"/>
+      <c r="N369" s="9">
         <v>600</v>
       </c>
-      <c r="O369" s="59"/>
-      <c r="P369" s="59"/>
-      <c r="Q369" s="59">
+      <c r="O369" s="9"/>
+      <c r="P369" s="9"/>
+      <c r="Q369" s="9">
         <v>17100</v>
       </c>
-      <c r="R369" s="59"/>
-      <c r="S369" s="59"/>
-      <c r="T369" s="59">
+      <c r="R369" s="9"/>
+      <c r="S369" s="9"/>
+      <c r="T369" s="9">
         <v>7000</v>
       </c>
-      <c r="U369" s="59"/>
-      <c r="V369" s="59"/>
-      <c r="W369" s="59">
+      <c r="U369" s="9"/>
+      <c r="V369" s="9"/>
+      <c r="W369" s="9">
         <v>33000</v>
       </c>
-      <c r="X369" s="59"/>
-      <c r="Y369" s="59"/>
-      <c r="Z369" s="59">
+      <c r="X369" s="9"/>
+      <c r="Y369" s="9"/>
+      <c r="Z369" s="9">
         <v>8000</v>
       </c>
-      <c r="AA369" s="59"/>
-      <c r="AB369" s="59"/>
-      <c r="AC369" s="59"/>
-      <c r="AD369" s="59">
+      <c r="AA369" s="9"/>
+      <c r="AB369" s="9"/>
+      <c r="AC369" s="9"/>
+      <c r="AD369" s="9">
         <v>1100</v>
       </c>
-      <c r="AE369" s="59"/>
-      <c r="AF369" s="59"/>
-      <c r="AG369" s="59">
+      <c r="AE369" s="9"/>
+      <c r="AF369" s="9"/>
+      <c r="AG369" s="9">
         <v>26000</v>
       </c>
-      <c r="AH369" s="59"/>
-      <c r="AI369" s="59"/>
-      <c r="AJ369" s="59">
+      <c r="AH369" s="9"/>
+      <c r="AI369" s="9"/>
+      <c r="AJ369" s="9">
         <v>42000</v>
       </c>
-      <c r="AK369" s="59"/>
-      <c r="AL369" s="59">
+      <c r="AK369" s="9"/>
+      <c r="AL369" s="9">
         <v>1050</v>
       </c>
-      <c r="AM369" s="59"/>
-      <c r="AN369" s="59"/>
-      <c r="AO369" s="59"/>
-      <c r="AP369" s="59">
+      <c r="AM369" s="9"/>
+      <c r="AN369" s="9"/>
+      <c r="AO369" s="9"/>
+      <c r="AP369" s="9">
         <v>5100</v>
       </c>
-      <c r="AQ369" s="59"/>
-      <c r="AR369" s="59">
+      <c r="AQ369" s="9"/>
+      <c r="AR369" s="9">
         <v>1600</v>
       </c>
-      <c r="AS369" s="59"/>
-      <c r="AT369" s="59"/>
-      <c r="AU369" s="59">
+      <c r="AS369" s="9"/>
+      <c r="AT369" s="9"/>
+      <c r="AU369" s="9">
         <v>430</v>
       </c>
-      <c r="AV369" s="60"/>
+      <c r="AV369" s="10"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="55" t="s">
+      <c r="A370" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B370" t="s">
@@ -8394,53 +8395,53 @@
       <c r="D370">
         <v>800</v>
       </c>
-      <c r="E370" s="56"/>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="55"/>
+      <c r="E370" s="7"/>
+    </row>
+    <row r="371" ht="15" spans="1:5">
+      <c r="A371" s="6"/>
       <c r="B371" t="s">
         <v>28</v>
       </c>
-      <c r="E371" s="56">
+      <c r="E371" s="7">
         <v>800</v>
       </c>
     </row>
     <row r="372" spans="1:11">
-      <c r="A372" s="55" t="s">
+      <c r="A372" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B372" t="s">
         <v>158</v>
       </c>
-      <c r="E372" s="56">
+      <c r="E372" s="7">
         <v>2700</v>
       </c>
-      <c r="H372" s="63" t="s">
+      <c r="H372" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I372" s="65"/>
-      <c r="J372" s="65"/>
-      <c r="K372" s="66"/>
+      <c r="I372" s="18"/>
+      <c r="J372" s="18"/>
+      <c r="K372" s="19"/>
     </row>
     <row r="373" spans="1:11">
-      <c r="A373" s="55"/>
+      <c r="A373" s="6"/>
       <c r="B373" t="s">
         <v>28</v>
       </c>
       <c r="D373">
         <v>2700</v>
       </c>
-      <c r="E373" s="56"/>
-      <c r="H373" s="55" t="s">
+      <c r="E373" s="7"/>
+      <c r="H373" s="6" t="s">
         <v>97</v>
       </c>
       <c r="J373">
         <v>4020</v>
       </c>
-      <c r="K373" s="56"/>
+      <c r="K373" s="7"/>
     </row>
     <row r="374" spans="1:11">
-      <c r="A374" s="55" t="s">
+      <c r="A374" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B374" t="s">
@@ -8449,53 +8450,53 @@
       <c r="D374">
         <v>430</v>
       </c>
-      <c r="E374" s="56"/>
-      <c r="H374" s="55"/>
-      <c r="K374" s="56"/>
+      <c r="E374" s="7"/>
+      <c r="H374" s="6"/>
+      <c r="K374" s="7"/>
     </row>
     <row r="375" spans="1:11">
-      <c r="A375" s="55"/>
+      <c r="A375" s="6"/>
       <c r="B375" t="s">
         <v>28</v>
       </c>
-      <c r="E375" s="56">
+      <c r="E375" s="7">
         <v>430</v>
       </c>
-      <c r="H375" s="55"/>
-      <c r="K375" s="56"/>
+      <c r="H375" s="6"/>
+      <c r="K375" s="7"/>
     </row>
     <row r="376" spans="1:11">
-      <c r="A376" s="55" t="s">
+      <c r="A376" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B376" t="s">
         <v>28</v>
       </c>
-      <c r="E376" s="56">
+      <c r="E376" s="7">
         <v>600</v>
       </c>
-      <c r="H376" s="55" t="s">
+      <c r="H376" s="6" t="s">
         <v>98</v>
       </c>
       <c r="J376">
         <v>1400</v>
       </c>
-      <c r="K376" s="56"/>
+      <c r="K376" s="7"/>
     </row>
     <row r="377" spans="1:11">
-      <c r="A377" s="55"/>
+      <c r="A377" s="6"/>
       <c r="B377" t="s">
         <v>131</v>
       </c>
       <c r="D377">
         <v>600</v>
       </c>
-      <c r="E377" s="56"/>
-      <c r="H377" s="55"/>
-      <c r="K377" s="56"/>
+      <c r="E377" s="7"/>
+      <c r="H377" s="6"/>
+      <c r="K377" s="7"/>
     </row>
     <row r="378" spans="1:11">
-      <c r="A378" s="55" t="s">
+      <c r="A378" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B378" t="s">
@@ -8504,28 +8505,28 @@
       <c r="D378">
         <v>4000</v>
       </c>
-      <c r="E378" s="56"/>
-      <c r="H378" s="55"/>
-      <c r="K378" s="56"/>
+      <c r="E378" s="7"/>
+      <c r="H378" s="6"/>
+      <c r="K378" s="7"/>
     </row>
     <row r="379" spans="1:11">
-      <c r="A379" s="55"/>
+      <c r="A379" s="6"/>
       <c r="B379" t="s">
         <v>28</v>
       </c>
-      <c r="E379" s="56">
+      <c r="E379" s="7">
         <v>4000</v>
       </c>
-      <c r="H379" s="55" t="s">
+      <c r="H379" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J379">
         <v>600</v>
       </c>
-      <c r="K379" s="56"/>
+      <c r="K379" s="7"/>
     </row>
     <row r="380" spans="1:11">
-      <c r="A380" s="55" t="s">
+      <c r="A380" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B380" t="s">
@@ -8534,23 +8535,23 @@
       <c r="D380">
         <v>2400</v>
       </c>
-      <c r="E380" s="56"/>
-      <c r="H380" s="55"/>
-      <c r="K380" s="56"/>
+      <c r="E380" s="7"/>
+      <c r="H380" s="6"/>
+      <c r="K380" s="7"/>
     </row>
     <row r="381" spans="1:11">
-      <c r="A381" s="55"/>
+      <c r="A381" s="6"/>
       <c r="B381" t="s">
         <v>98</v>
       </c>
-      <c r="E381" s="56">
+      <c r="E381" s="7">
         <v>2400</v>
       </c>
-      <c r="H381" s="55"/>
-      <c r="K381" s="56"/>
+      <c r="H381" s="6"/>
+      <c r="K381" s="7"/>
     </row>
     <row r="382" spans="1:11">
-      <c r="A382" s="55" t="s">
+      <c r="A382" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B382" t="s">
@@ -8559,28 +8560,28 @@
       <c r="D382">
         <v>800</v>
       </c>
-      <c r="E382" s="56"/>
-      <c r="H382" s="55" t="s">
+      <c r="E382" s="7"/>
+      <c r="H382" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J382">
         <v>17100</v>
       </c>
-      <c r="K382" s="56"/>
+      <c r="K382" s="7"/>
     </row>
     <row r="383" spans="1:11">
-      <c r="A383" s="55"/>
+      <c r="A383" s="6"/>
       <c r="B383" t="s">
         <v>28</v>
       </c>
-      <c r="E383" s="56">
+      <c r="E383" s="7">
         <v>800</v>
       </c>
-      <c r="H383" s="55"/>
-      <c r="K383" s="56"/>
+      <c r="H383" s="6"/>
+      <c r="K383" s="7"/>
     </row>
     <row r="384" spans="1:13">
-      <c r="A384" s="55" t="s">
+      <c r="A384" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B384" t="s">
@@ -8589,31 +8590,31 @@
       <c r="D384">
         <v>1000</v>
       </c>
-      <c r="E384" s="56"/>
-      <c r="H384" s="55"/>
-      <c r="K384" s="56"/>
+      <c r="E384" s="7"/>
+      <c r="H384" s="6"/>
+      <c r="K384" s="7"/>
       <c r="M384" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="385" spans="1:11">
-      <c r="A385" s="55"/>
+      <c r="A385" s="6"/>
       <c r="B385" t="s">
         <v>98</v>
       </c>
-      <c r="E385" s="56">
+      <c r="E385" s="7">
         <v>1000</v>
       </c>
-      <c r="H385" s="55" t="s">
+      <c r="H385" s="6" t="s">
         <v>157</v>
       </c>
       <c r="J385">
         <v>7000</v>
       </c>
-      <c r="K385" s="56"/>
+      <c r="K385" s="7"/>
     </row>
     <row r="386" spans="1:11">
-      <c r="A386" s="55" t="s">
+      <c r="A386" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B386" t="s">
@@ -8622,195 +8623,1055 @@
       <c r="D386">
         <v>1050</v>
       </c>
-      <c r="E386" s="56"/>
-      <c r="H386" s="55"/>
-      <c r="K386" s="56"/>
+      <c r="E386" s="7"/>
+      <c r="H386" s="6"/>
+      <c r="K386" s="7"/>
     </row>
     <row r="387" spans="1:11">
-      <c r="A387" s="55"/>
+      <c r="A387" s="6"/>
       <c r="B387" t="s">
         <v>28</v>
       </c>
-      <c r="E387" s="56">
+      <c r="E387" s="7">
         <v>1050</v>
       </c>
-      <c r="H387" s="55"/>
-      <c r="K387" s="56"/>
-    </row>
-    <row r="388" ht="15.75" spans="1:11">
-      <c r="A388" s="58"/>
-      <c r="B388" s="59"/>
-      <c r="C388" s="59"/>
-      <c r="D388" s="61">
+      <c r="H387" s="6"/>
+      <c r="K387" s="7"/>
+    </row>
+    <row r="388" ht="15" spans="1:11">
+      <c r="A388" s="8"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
+      <c r="D388" s="31">
         <f>SUM(D357:D387)</f>
         <v>98480</v>
       </c>
-      <c r="E388" s="64">
+      <c r="E388" s="32">
         <f>SUM(E357:E387)</f>
         <v>98480</v>
       </c>
-      <c r="H388" s="55" t="s">
+      <c r="H388" s="6" t="s">
         <v>113</v>
       </c>
       <c r="J388">
         <v>33000</v>
       </c>
-      <c r="K388" s="56"/>
+      <c r="K388" s="7"/>
     </row>
     <row r="389" spans="8:11">
-      <c r="H389" s="55"/>
-      <c r="K389" s="56"/>
+      <c r="H389" s="6"/>
+      <c r="K389" s="7"/>
     </row>
     <row r="390" spans="8:11">
-      <c r="H390" s="55"/>
-      <c r="K390" s="56"/>
+      <c r="H390" s="6"/>
+      <c r="K390" s="7"/>
     </row>
     <row r="391" spans="8:11">
-      <c r="H391" s="55" t="s">
+      <c r="H391" s="6" t="s">
         <v>114</v>
       </c>
       <c r="J391">
         <v>8000</v>
       </c>
-      <c r="K391" s="56"/>
+      <c r="K391" s="7"/>
     </row>
     <row r="392" spans="8:11">
-      <c r="H392" s="55"/>
-      <c r="K392" s="56"/>
+      <c r="H392" s="6"/>
+      <c r="K392" s="7"/>
     </row>
     <row r="393" spans="8:11">
-      <c r="H393" s="55"/>
-      <c r="K393" s="56"/>
+      <c r="H393" s="6"/>
+      <c r="K393" s="7"/>
     </row>
     <row r="394" spans="8:11">
-      <c r="H394" s="55" t="s">
+      <c r="H394" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K394" s="56"/>
+      <c r="K394" s="7"/>
     </row>
     <row r="395" spans="8:11">
-      <c r="H395" s="55"/>
-      <c r="K395" s="56">
+      <c r="H395" s="6"/>
+      <c r="K395" s="7">
         <v>1100</v>
       </c>
     </row>
     <row r="396" spans="8:11">
-      <c r="H396" s="55"/>
-      <c r="K396" s="56"/>
+      <c r="H396" s="6"/>
+      <c r="K396" s="7"/>
     </row>
     <row r="397" spans="8:11">
-      <c r="H397" s="55" t="s">
+      <c r="H397" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K397" s="56"/>
+      <c r="K397" s="7"/>
     </row>
     <row r="398" spans="8:11">
-      <c r="H398" s="55"/>
-      <c r="K398" s="56">
+      <c r="H398" s="6"/>
+      <c r="K398" s="7">
         <v>26000</v>
       </c>
     </row>
     <row r="399" spans="8:11">
-      <c r="H399" s="55"/>
-      <c r="K399" s="56"/>
+      <c r="H399" s="6"/>
+      <c r="K399" s="7"/>
     </row>
     <row r="400" spans="8:11">
-      <c r="H400" s="55" t="s">
+      <c r="H400" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K400" s="56"/>
+      <c r="K400" s="7"/>
     </row>
     <row r="401" spans="8:11">
-      <c r="H401" s="55"/>
-      <c r="K401" s="56">
+      <c r="H401" s="6"/>
+      <c r="K401" s="7">
         <v>42000</v>
       </c>
     </row>
     <row r="402" spans="8:11">
-      <c r="H402" s="55"/>
-      <c r="K402" s="56"/>
+      <c r="H402" s="6"/>
+      <c r="K402" s="7"/>
     </row>
     <row r="403" spans="8:11">
-      <c r="H403" s="55" t="s">
+      <c r="H403" s="6" t="s">
         <v>69</v>
       </c>
       <c r="J403">
         <v>1050</v>
       </c>
-      <c r="K403" s="56"/>
+      <c r="K403" s="7"/>
     </row>
     <row r="404" spans="8:11">
-      <c r="H404" s="55"/>
-      <c r="K404" s="56"/>
+      <c r="H404" s="6"/>
+      <c r="K404" s="7"/>
     </row>
     <row r="405" spans="8:11">
-      <c r="H405" s="55"/>
-      <c r="K405" s="56"/>
+      <c r="H405" s="6"/>
+      <c r="K405" s="7"/>
     </row>
     <row r="406" spans="8:11">
-      <c r="H406" s="55" t="s">
+      <c r="H406" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K406" s="56"/>
+      <c r="K406" s="7"/>
     </row>
     <row r="407" spans="8:11">
-      <c r="H407" s="55"/>
-      <c r="K407" s="56">
+      <c r="H407" s="6"/>
+      <c r="K407" s="7">
         <v>5100</v>
       </c>
     </row>
     <row r="408" spans="8:11">
-      <c r="H408" s="55"/>
-      <c r="K408" s="56"/>
+      <c r="H408" s="6"/>
+      <c r="K408" s="7"/>
     </row>
     <row r="409" spans="8:11">
-      <c r="H409" s="55" t="s">
+      <c r="H409" s="6" t="s">
         <v>159</v>
       </c>
       <c r="J409">
         <v>1600</v>
       </c>
-      <c r="K409" s="56"/>
+      <c r="K409" s="7"/>
     </row>
     <row r="410" spans="8:11">
-      <c r="H410" s="55"/>
-      <c r="K410" s="56"/>
+      <c r="H410" s="6"/>
+      <c r="K410" s="7"/>
     </row>
     <row r="411" spans="8:11">
-      <c r="H411" s="55"/>
-      <c r="K411" s="56"/>
+      <c r="H411" s="6"/>
+      <c r="K411" s="7"/>
     </row>
     <row r="412" spans="8:11">
-      <c r="H412" s="55" t="s">
+      <c r="H412" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J412">
         <v>430</v>
       </c>
-      <c r="K412" s="56"/>
-    </row>
-    <row r="413" ht="15.75" spans="8:11">
-      <c r="H413" s="58"/>
-      <c r="I413" s="59"/>
-      <c r="J413" s="61">
+      <c r="K412" s="7"/>
+    </row>
+    <row r="413" spans="8:11">
+      <c r="H413" s="8"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="31">
         <f>SUM(J373:J412)</f>
         <v>74200</v>
       </c>
-      <c r="K413" s="64">
+      <c r="K413" s="32">
         <f>SUM(K373:K412)</f>
         <v>74200</v>
       </c>
     </row>
-    <row r="416" ht="18.75" spans="1:1">
+    <row r="416" ht="18" spans="1:1">
       <c r="A416" s="2"/>
     </row>
-    <row r="417" spans="8:8">
-      <c r="H417" t="s">
-        <v>125</v>
+    <row r="417" ht="18" spans="1:1">
+      <c r="A417" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="419" spans="1:39">
+      <c r="A419" s="52"/>
+      <c r="B419" s="53"/>
+      <c r="C419" s="53"/>
+      <c r="D419" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E419" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H419" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I419" s="53"/>
+      <c r="J419" s="53"/>
+      <c r="K419" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="L419" s="53"/>
+      <c r="M419" s="53"/>
+      <c r="N419" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="O419" s="53"/>
+      <c r="P419" s="53"/>
+      <c r="Q419" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="R419" s="53"/>
+      <c r="S419" s="53"/>
+      <c r="T419" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="U419" s="53"/>
+      <c r="V419" s="53"/>
+      <c r="W419" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="X419" s="53"/>
+      <c r="Y419" s="53"/>
+      <c r="Z419" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA419" s="53"/>
+      <c r="AB419" s="53"/>
+      <c r="AC419" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD419" s="53"/>
+      <c r="AE419" s="53"/>
+      <c r="AF419" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG419" s="53"/>
+      <c r="AH419" s="53"/>
+      <c r="AI419" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ419" s="53"/>
+      <c r="AK419" s="53"/>
+      <c r="AL419" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM419" s="54"/>
+    </row>
+    <row r="420" spans="1:39">
+      <c r="A420" s="55">
+        <v>1</v>
+      </c>
+      <c r="B420" t="s">
+        <v>97</v>
+      </c>
+      <c r="D420">
+        <v>30000</v>
+      </c>
+      <c r="E420" s="56"/>
+      <c r="H420" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I420" t="s">
+        <v>96</v>
+      </c>
+      <c r="K420" t="s">
+        <v>95</v>
+      </c>
+      <c r="L420" t="s">
+        <v>96</v>
+      </c>
+      <c r="N420" t="s">
+        <v>95</v>
+      </c>
+      <c r="O420" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>95</v>
+      </c>
+      <c r="R420" t="s">
+        <v>96</v>
+      </c>
+      <c r="T420" t="s">
+        <v>95</v>
+      </c>
+      <c r="U420" t="s">
+        <v>96</v>
+      </c>
+      <c r="W420" t="s">
+        <v>95</v>
+      </c>
+      <c r="X420" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC420" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD420" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF420" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI420" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ420" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL420" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM420" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="421" spans="1:39">
+      <c r="A421" s="55"/>
+      <c r="B421" t="s">
+        <v>64</v>
+      </c>
+      <c r="D421">
+        <v>15000</v>
+      </c>
+      <c r="E421" s="56"/>
+      <c r="H421" s="55">
+        <v>30000</v>
+      </c>
+      <c r="K421">
+        <v>10200</v>
+      </c>
+      <c r="N421">
+        <v>600</v>
+      </c>
+      <c r="Q421">
+        <v>1800</v>
+      </c>
+      <c r="T421">
+        <v>4500</v>
+      </c>
+      <c r="W421">
+        <v>15000</v>
+      </c>
+      <c r="AA421">
+        <v>3100</v>
+      </c>
+      <c r="AD421">
+        <v>45000</v>
+      </c>
+      <c r="AF421">
+        <v>5300</v>
+      </c>
+      <c r="AJ421">
+        <v>3400</v>
+      </c>
+      <c r="AL421">
+        <v>531</v>
+      </c>
+      <c r="AM421" s="56"/>
+    </row>
+    <row r="422" spans="1:39">
+      <c r="A422" s="55"/>
+      <c r="B422" t="s">
+        <v>68</v>
+      </c>
+      <c r="E422" s="56">
+        <v>45000</v>
+      </c>
+      <c r="H422" s="55"/>
+      <c r="I422">
+        <v>4500</v>
+      </c>
+      <c r="L422">
+        <v>5200</v>
+      </c>
+      <c r="N422">
+        <v>249</v>
+      </c>
+      <c r="W422">
+        <v>2500</v>
+      </c>
+      <c r="Z422">
+        <v>3100</v>
+      </c>
+      <c r="AJ422">
+        <v>10200</v>
+      </c>
+      <c r="AM422" s="56"/>
+    </row>
+    <row r="423" spans="1:39">
+      <c r="A423" s="55">
+        <v>2</v>
+      </c>
+      <c r="B423" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H423" s="55">
+        <v>3400</v>
+      </c>
+      <c r="K423">
+        <v>1750</v>
+      </c>
+      <c r="AA423">
+        <v>249</v>
+      </c>
+      <c r="AJ423">
+        <v>1750</v>
+      </c>
+      <c r="AM423" s="56"/>
+    </row>
+    <row r="424" spans="1:39">
+      <c r="A424" s="55"/>
+      <c r="B424" t="s">
+        <v>104</v>
+      </c>
+      <c r="D424">
+        <v>4500</v>
+      </c>
+      <c r="E424" s="56"/>
+      <c r="H424" s="55"/>
+      <c r="I424">
+        <v>3100</v>
+      </c>
+      <c r="AM424" s="56"/>
+    </row>
+    <row r="425" spans="1:39">
+      <c r="A425" s="55">
+        <v>4</v>
+      </c>
+      <c r="B425" t="s">
+        <v>64</v>
+      </c>
+      <c r="D425">
+        <v>2500</v>
+      </c>
+      <c r="E425" s="56"/>
+      <c r="H425" s="55"/>
+      <c r="I425">
+        <v>1800</v>
+      </c>
+      <c r="AM425" s="56"/>
+    </row>
+    <row r="426" spans="1:39">
+      <c r="A426" s="55"/>
+      <c r="B426" t="s">
+        <v>63</v>
+      </c>
+      <c r="D426">
+        <v>600</v>
+      </c>
+      <c r="E426" s="56"/>
+      <c r="H426" s="55">
+        <v>5200</v>
+      </c>
+      <c r="AM426" s="56"/>
+    </row>
+    <row r="427" spans="1:39">
+      <c r="A427" s="55"/>
+      <c r="B427" t="s">
+        <v>131</v>
+      </c>
+      <c r="E427" s="56">
+        <v>3100</v>
+      </c>
+      <c r="H427" s="55"/>
+      <c r="I427">
+        <v>5300</v>
+      </c>
+      <c r="AM427" s="56"/>
+    </row>
+    <row r="428" spans="1:39">
+      <c r="A428" s="55">
+        <v>8</v>
+      </c>
+      <c r="B428" t="s">
+        <v>154</v>
+      </c>
+      <c r="E428" s="56">
+        <v>3400</v>
+      </c>
+      <c r="H428" s="55"/>
+      <c r="I428">
+        <v>531</v>
+      </c>
+      <c r="AM428" s="56"/>
+    </row>
+    <row r="429" spans="1:39">
+      <c r="A429" s="55"/>
+      <c r="B429" t="s">
+        <v>28</v>
+      </c>
+      <c r="D429">
+        <v>3400</v>
+      </c>
+      <c r="E429" s="56"/>
+      <c r="H429" s="57">
+        <f>SUM(H421:H428)</f>
+        <v>38600</v>
+      </c>
+      <c r="I429" s="42">
+        <f t="shared" ref="I429:AM429" si="6">SUM(I421:I428)</f>
+        <v>15231</v>
+      </c>
+      <c r="J429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K429" s="42">
+        <f t="shared" si="6"/>
+        <v>11950</v>
+      </c>
+      <c r="L429" s="42">
+        <f t="shared" si="6"/>
+        <v>5200</v>
+      </c>
+      <c r="M429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N429" s="42">
+        <f t="shared" si="6"/>
+        <v>849</v>
+      </c>
+      <c r="O429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q429" s="42">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="R429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T429" s="42">
+        <f t="shared" si="6"/>
+        <v>4500</v>
+      </c>
+      <c r="U429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W429" s="42">
+        <f t="shared" si="6"/>
+        <v>17500</v>
+      </c>
+      <c r="X429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z429" s="42">
+        <f t="shared" si="6"/>
+        <v>3100</v>
+      </c>
+      <c r="AA429" s="42">
+        <f t="shared" si="6"/>
+        <v>3349</v>
+      </c>
+      <c r="AB429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD429" s="42">
+        <f t="shared" si="6"/>
+        <v>45000</v>
+      </c>
+      <c r="AE429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF429" s="42">
+        <f t="shared" si="6"/>
+        <v>5300</v>
+      </c>
+      <c r="AG429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ429" s="42">
+        <f t="shared" si="6"/>
+        <v>15350</v>
+      </c>
+      <c r="AK429" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL429" s="42">
+        <f t="shared" si="6"/>
+        <v>531</v>
+      </c>
+      <c r="AM429" s="65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" ht="15" spans="1:39">
+      <c r="A430" s="55">
+        <v>12</v>
+      </c>
+      <c r="B430" t="s">
+        <v>154</v>
+      </c>
+      <c r="E430" s="56">
+        <v>10200</v>
+      </c>
+      <c r="H430" s="58">
+        <f>H429-I429</f>
+        <v>23369</v>
+      </c>
+      <c r="I430" s="60"/>
+      <c r="J430" s="60"/>
+      <c r="K430" s="60">
+        <f>K429-L429</f>
+        <v>6750</v>
+      </c>
+      <c r="L430" s="60"/>
+      <c r="M430" s="60"/>
+      <c r="N430" s="60">
+        <v>849</v>
+      </c>
+      <c r="O430" s="60"/>
+      <c r="P430" s="60"/>
+      <c r="Q430" s="60">
+        <v>1800</v>
+      </c>
+      <c r="R430" s="60"/>
+      <c r="S430" s="60"/>
+      <c r="T430" s="60">
+        <v>4500</v>
+      </c>
+      <c r="U430" s="60"/>
+      <c r="V430" s="60"/>
+      <c r="W430" s="60">
+        <v>17500</v>
+      </c>
+      <c r="X430" s="60"/>
+      <c r="Y430" s="60"/>
+      <c r="Z430" s="60"/>
+      <c r="AA430" s="60">
+        <f>AA429-Z429</f>
+        <v>249</v>
+      </c>
+      <c r="AB430" s="60"/>
+      <c r="AC430" s="60"/>
+      <c r="AD430" s="60">
+        <v>45000</v>
+      </c>
+      <c r="AE430" s="60"/>
+      <c r="AF430" s="60">
+        <v>5300</v>
+      </c>
+      <c r="AG430" s="60"/>
+      <c r="AH430" s="60"/>
+      <c r="AI430" s="60"/>
+      <c r="AJ430" s="60">
+        <v>15350</v>
+      </c>
+      <c r="AK430" s="60"/>
+      <c r="AL430" s="60">
+        <v>531</v>
+      </c>
+      <c r="AM430" s="66"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="55"/>
+      <c r="B431" t="s">
+        <v>98</v>
+      </c>
+      <c r="D431">
+        <v>10200</v>
+      </c>
+      <c r="E431" s="56"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="55">
+        <v>13</v>
+      </c>
+      <c r="B432" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="56">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
+      <c r="A433" s="55"/>
+      <c r="B433" t="s">
+        <v>131</v>
+      </c>
+      <c r="D433">
+        <v>3100</v>
+      </c>
+      <c r="E433" s="56"/>
+      <c r="H433" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="I433" s="63"/>
+      <c r="J433" s="63"/>
+      <c r="K433" s="64"/>
+    </row>
+    <row r="434" spans="1:11">
+      <c r="A434" s="55">
+        <v>19</v>
+      </c>
+      <c r="B434" t="s">
+        <v>28</v>
+      </c>
+      <c r="E434" s="56">
+        <v>1800</v>
+      </c>
+      <c r="H434" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J434">
+        <v>23369</v>
+      </c>
+      <c r="K434" s="56"/>
+    </row>
+    <row r="435" spans="1:11">
+      <c r="A435" s="55"/>
+      <c r="B435" t="s">
+        <v>108</v>
+      </c>
+      <c r="D435">
+        <v>1800</v>
+      </c>
+      <c r="E435" s="56"/>
+      <c r="H435" s="55"/>
+      <c r="K435" s="56"/>
+    </row>
+    <row r="436" spans="1:11">
+      <c r="A436" s="55">
+        <v>22</v>
+      </c>
+      <c r="B436" t="s">
+        <v>28</v>
+      </c>
+      <c r="D436">
+        <v>5200</v>
+      </c>
+      <c r="E436" s="56"/>
+      <c r="H436" s="55"/>
+      <c r="K436" s="56"/>
+    </row>
+    <row r="437" spans="1:11">
+      <c r="A437" s="55"/>
+      <c r="B437" t="s">
+        <v>98</v>
+      </c>
+      <c r="E437" s="56">
+        <v>5200</v>
+      </c>
+      <c r="H437" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="J437">
+        <v>6750</v>
+      </c>
+      <c r="K437" s="56"/>
+    </row>
+    <row r="438" spans="1:11">
+      <c r="A438" s="55">
+        <v>24</v>
+      </c>
+      <c r="B438" t="s">
+        <v>154</v>
+      </c>
+      <c r="E438" s="56">
+        <v>1750</v>
+      </c>
+      <c r="H438" s="55"/>
+      <c r="K438" s="56"/>
+    </row>
+    <row r="439" spans="1:11">
+      <c r="A439" s="55"/>
+      <c r="B439" t="s">
+        <v>98</v>
+      </c>
+      <c r="D439">
+        <v>1750</v>
+      </c>
+      <c r="E439" s="56"/>
+      <c r="H439" s="55"/>
+      <c r="K439" s="56"/>
+    </row>
+    <row r="440" spans="1:11">
+      <c r="A440" s="55">
+        <v>28</v>
+      </c>
+      <c r="B440" t="s">
+        <v>69</v>
+      </c>
+      <c r="D440">
+        <v>5300</v>
+      </c>
+      <c r="E440" s="56"/>
+      <c r="H440" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J440">
+        <v>849</v>
+      </c>
+      <c r="K440" s="56"/>
+    </row>
+    <row r="441" spans="1:11">
+      <c r="A441" s="55"/>
+      <c r="B441" t="s">
+        <v>28</v>
+      </c>
+      <c r="E441" s="56">
+        <v>5300</v>
+      </c>
+      <c r="H441" s="55"/>
+      <c r="K441" s="56"/>
+    </row>
+    <row r="442" spans="1:11">
+      <c r="A442" s="55">
+        <v>29</v>
+      </c>
+      <c r="B442" t="s">
+        <v>63</v>
+      </c>
+      <c r="D442">
+        <v>249</v>
+      </c>
+      <c r="E442" s="56"/>
+      <c r="H442" s="55"/>
+      <c r="K442" s="56"/>
+    </row>
+    <row r="443" spans="1:11">
+      <c r="A443" s="55"/>
+      <c r="B443" t="s">
+        <v>131</v>
+      </c>
+      <c r="E443" s="56">
+        <v>249</v>
+      </c>
+      <c r="H443" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J443">
+        <v>1800</v>
+      </c>
+      <c r="K443" s="56"/>
+    </row>
+    <row r="444" spans="1:11">
+      <c r="A444" s="55">
+        <v>30</v>
+      </c>
+      <c r="B444" t="s">
+        <v>28</v>
+      </c>
+      <c r="E444" s="56">
+        <v>531</v>
+      </c>
+      <c r="H444" s="55"/>
+      <c r="K444" s="56"/>
+    </row>
+    <row r="445" spans="1:11">
+      <c r="A445" s="55"/>
+      <c r="B445" t="s">
+        <v>155</v>
+      </c>
+      <c r="D445">
+        <v>531</v>
+      </c>
+      <c r="E445" s="56"/>
+      <c r="H445" s="55"/>
+      <c r="K445" s="56"/>
+    </row>
+    <row r="446" ht="15" spans="1:11">
+      <c r="A446" s="58"/>
+      <c r="B446" s="60"/>
+      <c r="C446" s="60"/>
+      <c r="D446" s="61">
+        <f>SUM(D420:D445)</f>
+        <v>84130</v>
+      </c>
+      <c r="E446" s="62">
+        <f>SUM(E420:E445)</f>
+        <v>84130</v>
+      </c>
+      <c r="H446" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J446">
+        <v>4500</v>
+      </c>
+      <c r="K446" s="56"/>
+    </row>
+    <row r="447" spans="8:11">
+      <c r="H447" s="55"/>
+      <c r="K447" s="56"/>
+    </row>
+    <row r="448" spans="8:11">
+      <c r="H448" s="55"/>
+      <c r="K448" s="56"/>
+    </row>
+    <row r="449" spans="8:11">
+      <c r="H449" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J449">
+        <v>17500</v>
+      </c>
+      <c r="K449" s="56"/>
+    </row>
+    <row r="450" spans="8:11">
+      <c r="H450" s="55"/>
+      <c r="K450" s="56"/>
+    </row>
+    <row r="451" spans="8:11">
+      <c r="H451" s="55"/>
+      <c r="K451" s="56"/>
+    </row>
+    <row r="452" spans="8:11">
+      <c r="H452" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K452" s="56"/>
+    </row>
+    <row r="453" spans="8:11">
+      <c r="H453" s="55"/>
+      <c r="K453" s="56">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="454" spans="8:11">
+      <c r="H454" s="55"/>
+      <c r="K454" s="56"/>
+    </row>
+    <row r="455" spans="8:11">
+      <c r="H455" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K455" s="56"/>
+    </row>
+    <row r="456" spans="8:11">
+      <c r="H456" s="55"/>
+      <c r="K456" s="56">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="457" spans="8:11">
+      <c r="H457" s="55"/>
+      <c r="K457" s="56"/>
+    </row>
+    <row r="458" spans="8:11">
+      <c r="H458" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K458" s="56"/>
+    </row>
+    <row r="459" spans="8:11">
+      <c r="H459" s="55"/>
+      <c r="J459">
+        <v>5300</v>
+      </c>
+      <c r="K459" s="56"/>
+    </row>
+    <row r="460" spans="8:11">
+      <c r="H460" s="55"/>
+      <c r="K460" s="56"/>
+    </row>
+    <row r="461" spans="8:11">
+      <c r="H461" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="K461" s="56"/>
+    </row>
+    <row r="462" spans="8:11">
+      <c r="H462" s="55"/>
+      <c r="K462" s="56">
+        <v>15350</v>
+      </c>
+    </row>
+    <row r="463" spans="8:11">
+      <c r="H463" s="55"/>
+      <c r="K463" s="56"/>
+    </row>
+    <row r="464" spans="8:11">
+      <c r="H464" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J464">
+        <v>531</v>
+      </c>
+      <c r="K464" s="56"/>
+    </row>
+    <row r="465" ht="15" spans="8:11">
+      <c r="H465" s="58"/>
+      <c r="I465" s="60"/>
+      <c r="J465" s="61">
+        <f>SUM(J434:J464)</f>
+        <v>60599</v>
+      </c>
+      <c r="K465" s="62">
+        <f>SUM(K434:K464)</f>
+        <v>60599</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -8845,6 +9706,7 @@
     <mergeCell ref="F290:I290"/>
     <mergeCell ref="H321:K321"/>
     <mergeCell ref="H372:K372"/>
+    <mergeCell ref="H433:K433"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D31:D32"/>
